--- a/ЗАВОДЫ/Черкизово UZ/2025/05,25/29,05,25 Черкизово Ташкент/Единый Бланк заказа КИ Узбекистан (заказ на 08,06,25).xlsx
+++ b/ЗАВОДЫ/Черкизово UZ/2025/05,25/29,05,25 Черкизово Ташкент/Единый Бланк заказа КИ Узбекистан (заказ на 08,06,25).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Ташкент\29,05,25 Черкизово Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Черкизово UZ\2025\05,25\29,05,25 Черкизово Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CEB3A-5303-4309-AD95-D2C7BAB618CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E04A7FB-E174-4D3E-AC2F-45AEC628E1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$10:$M$174</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029" calcOnSave="0" concurrentManualCount="4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2112,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
